--- a/Team schedule.xlsx
+++ b/Team schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\cs337 final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CSC337-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD4FBAD-9D22-4D3C-92A6-B75D00701159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C8290-1436-4EAA-8B44-D6A193492C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="15600" xr2:uid="{A846C7F4-29D4-47BA-BFA6-42F9052F555D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A846C7F4-29D4-47BA-BFA6-42F9052F555D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Monday</t>
   </si>
@@ -58,12 +58,24 @@
   <si>
     <t>Sunday</t>
   </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +90,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +108,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,17 +125,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,15 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A735F147-4CB0-456C-BC00-5346D3D4162A}">
-  <dimension ref="D2:AK9"/>
+  <dimension ref="A2:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -523,61 +556,917 @@
       <c r="AH2" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="AI2" s="1">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0.95833333333333304</v>
-      </c>
-    </row>
-    <row r="3" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="4:37" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="A33:C36"/>
+    <mergeCell ref="A3:C6"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A18:C21"/>
+    <mergeCell ref="A23:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>